--- a/data/league_data/england/20/england_possession.xlsx
+++ b/data/league_data/england/20/england_possession.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310DB94E-3BF7-144A-A832-17A0ABBF5682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353E1F8-2368-EF4B-9D33-99E2ABF0B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1600,9 +1600,6 @@
     <t>Ryan Sessegnon</t>
   </si>
   <si>
-    <t>Jota</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
@@ -1856,12 +1853,15 @@
   </si>
   <si>
     <t>Ralf Fährmann</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2722,14 +2722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2763,7 +2763,7 @@
     <col min="32" max="32" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -22827,7 +22827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -23121,7 +23121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="210" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="222" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -24881,7 +24881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -25077,7 +25077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="236" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -25861,7 +25861,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="237" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="242" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="243" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -27037,7 +27037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -27527,7 +27527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -27625,7 +27625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -27723,7 +27723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -27821,7 +27821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="259" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -28115,7 +28115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -28605,7 +28605,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="265" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -28899,7 +28899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="269" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -29193,7 +29193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -29389,7 +29389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="275" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -29683,7 +29683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -29781,7 +29781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="277" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -29879,7 +29879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -29977,7 +29977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -30075,7 +30075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -30173,7 +30173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -30271,7 +30271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -30369,7 +30369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="284" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="287" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -31249,7 +31249,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="292" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="293" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -31445,7 +31445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -31641,7 +31641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -31933,7 +31933,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -32031,7 +32031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -32325,7 +32325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -32619,7 +32619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -32717,7 +32717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -32815,7 +32815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -32913,7 +32913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -33011,7 +33011,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="310" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -33109,7 +33109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="312" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -33501,7 +33501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="315" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -33599,7 +33599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -33893,7 +33893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="319" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -33991,7 +33991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -34187,7 +34187,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="322" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -34383,7 +34383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="327" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -34775,7 +34775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="329" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -34969,7 +34969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -35067,7 +35067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -35359,7 +35359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -35457,7 +35457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="335" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -35555,7 +35555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -35653,7 +35653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="337" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -35751,7 +35751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -35849,7 +35849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -35947,7 +35947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -36045,7 +36045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="342" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -36241,7 +36241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -36339,7 +36339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -36437,7 +36437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -36535,7 +36535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -36633,7 +36633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -36731,7 +36731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -36827,7 +36827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -36925,7 +36925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -37023,7 +37023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -37121,7 +37121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -37219,7 +37219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="353" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -37317,7 +37317,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="354" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="355" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -37611,7 +37611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -37709,7 +37709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -37807,7 +37807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="360" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -38297,7 +38297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -38393,7 +38393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -38491,7 +38491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -38589,7 +38589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="367" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -38687,7 +38687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="368" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -38785,7 +38785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="369" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -38883,7 +38883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="370" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -38981,7 +38981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="371" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -39079,7 +39079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -39275,7 +39275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -39373,7 +39373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -39471,7 +39471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="376" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -39569,7 +39569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -39667,7 +39667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="378" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -39765,7 +39765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="379" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="380" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -39961,7 +39961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="381" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -40057,7 +40057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -40155,7 +40155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -40253,7 +40253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -40351,7 +40351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -40547,7 +40547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -40743,7 +40743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -40939,7 +40939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -41037,7 +41037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="392" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -41231,7 +41231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -41329,7 +41329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -41427,7 +41427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -41525,7 +41525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -41623,7 +41623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -41817,7 +41817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -41915,7 +41915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="401" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -42013,7 +42013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -42111,7 +42111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -42207,7 +42207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -42305,7 +42305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -42501,7 +42501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -42599,7 +42599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -42795,7 +42795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -42893,7 +42893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -42991,7 +42991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -43089,7 +43089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -43187,7 +43187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -43283,12 +43283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>46</v>
@@ -43381,15 +43381,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C416" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>91</v>
@@ -43479,12 +43479,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>31</v>
@@ -43575,12 +43575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>151</v>
@@ -43673,12 +43673,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>158</v>
@@ -43771,12 +43771,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>50</v>
@@ -43869,12 +43869,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>121</v>
@@ -43967,12 +43967,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>455</v>
@@ -44065,12 +44065,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>229</v>
@@ -44161,12 +44161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>31</v>
@@ -44259,12 +44259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>46</v>
@@ -44357,12 +44357,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>31</v>
@@ -44455,12 +44455,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>31</v>
@@ -44553,12 +44553,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>312</v>
@@ -44651,12 +44651,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>501</v>
@@ -44749,7 +44749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="430" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -44847,12 +44847,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>129</v>
@@ -44945,12 +44945,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="432" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>31</v>
@@ -45041,12 +45041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>31</v>
@@ -45139,7 +45139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -45237,12 +45237,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>31</v>
@@ -45335,12 +45335,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>229</v>
@@ -45433,12 +45433,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>71</v>
@@ -45531,12 +45531,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>501</v>
@@ -45629,12 +45629,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45727,12 +45727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>31</v>
@@ -45825,12 +45825,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>105</v>
@@ -45923,12 +45923,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>31</v>
@@ -46021,12 +46021,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>31</v>
@@ -46119,12 +46119,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>31</v>
@@ -46217,12 +46217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>187</v>
@@ -46315,12 +46315,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>31</v>
@@ -46413,12 +46413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>31</v>
@@ -46509,12 +46509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>71</v>
@@ -46605,12 +46605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>121</v>
@@ -46703,12 +46703,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>69</v>
@@ -46799,12 +46799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>46</v>
@@ -46897,12 +46897,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>76</v>
@@ -46995,12 +46995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>187</v>
@@ -47091,12 +47091,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>37</v>
@@ -47189,12 +47189,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>76</v>
@@ -47287,12 +47287,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>31</v>
@@ -47383,12 +47383,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>206</v>
@@ -47481,12 +47481,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>31</v>
@@ -47577,12 +47577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>31</v>
@@ -47675,12 +47675,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>31</v>
@@ -47773,12 +47773,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>180</v>
@@ -47871,12 +47871,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>76</v>
@@ -47969,12 +47969,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>46</v>
@@ -48065,12 +48065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>164</v>
@@ -48163,12 +48163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>84</v>
@@ -48261,15 +48261,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>85</v>
@@ -48359,12 +48359,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>37</v>
@@ -48457,12 +48457,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>167</v>
@@ -48555,12 +48555,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48653,12 +48653,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48751,12 +48751,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>37</v>
@@ -48849,12 +48849,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>71</v>
@@ -48945,12 +48945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>31</v>
@@ -49041,12 +49041,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49139,15 +49139,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>77</v>
@@ -49237,12 +49237,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>50</v>
@@ -49335,12 +49335,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>180</v>
@@ -49433,18 +49433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>44</v>
@@ -49531,12 +49531,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>167</v>
@@ -49629,12 +49629,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>470</v>
@@ -49727,12 +49727,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>50</v>
@@ -49823,12 +49823,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>96</v>
@@ -49921,12 +49921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>31</v>
@@ -50019,12 +50019,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50117,12 +50117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>455</v>
@@ -50213,12 +50213,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>309</v>
@@ -50311,12 +50311,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>173</v>
@@ -50409,18 +50409,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>47</v>
@@ -50507,12 +50507,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>31</v>
@@ -50603,12 +50603,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50701,7 +50701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -50797,12 +50797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>31</v>
@@ -50895,12 +50895,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>112</v>
@@ -50993,12 +50993,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>31</v>
@@ -51091,12 +51091,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51189,15 +51189,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>56</v>
@@ -51287,12 +51287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51385,12 +51385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>46</v>
@@ -51481,12 +51481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51577,12 +51577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>173</v>
@@ -51673,7 +51673,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:32" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/england/20/england_possession.xlsx
+++ b/data/league_data/england/20/england_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353E1F8-2368-EF4B-9D33-99E2ABF0B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357346E-2245-2543-B673-28903B1C535A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,9 +1828,6 @@
     <t>Josh Martin</t>
   </si>
   <si>
-    <t>João Pedro</t>
-  </si>
-  <si>
     <t>Patrick Roberts</t>
   </si>
   <si>
@@ -1856,6 +1853,9 @@
   </si>
   <si>
     <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>João Pedro Junqueira</t>
   </si>
 </sst>
 </file>
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43288,7 +43288,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>46</v>
@@ -50900,7 +50900,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>112</v>
@@ -50998,7 +50998,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>31</v>
@@ -51096,7 +51096,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51194,10 +51194,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>56</v>
@@ -51292,7 +51292,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51390,7 +51390,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>46</v>
@@ -51486,7 +51486,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>31</v>
@@ -51582,7 +51582,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>173</v>
